--- a/maven_use_base/src/main/java/api/teachers/day09/section01/api_test_case_01.xlsx
+++ b/maven_use_base/src/main/java/api/teachers/day09/section01/api_test_case_01.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\maven_java_base_git\java_maven_base_git\maven_use_base\src\main\java\api\teachers\day09\section01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2FB98-8DD6-4471-8225-E19F9596B190}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7752" activeTab="1"/>
+    <workbookView minimized="1" xWindow="900" yWindow="2085" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -668,7 +674,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,9 +772,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -782,7 +859,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -817,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,9 +927,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,6 +979,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1060,23 +1171,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="73.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1090,7 +1201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1104,7 +1215,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1229,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1132,7 +1243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +1257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1285,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1188,7 +1299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1202,7 +1313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1216,7 +1327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1230,7 +1341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1244,7 +1355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1258,7 +1369,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1280,29 +1391,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="31.77734375" style="1"/>
+    <col min="4" max="4" width="56.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1357,7 +1468,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1377,7 +1488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1397,7 +1508,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1417,7 +1528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1437,7 +1548,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1457,7 +1568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1480,7 +1591,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1500,7 +1611,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1520,7 +1631,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1540,7 +1651,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1560,7 +1671,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1583,7 +1694,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1606,7 +1717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="88.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1632,7 +1743,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1655,7 +1766,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1678,7 +1789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1701,7 +1812,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1724,7 +1835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1747,7 +1858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1770,7 +1881,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1793,7 +1904,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1816,7 +1927,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1839,7 +1950,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1862,7 +1973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1885,7 +1996,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1908,7 +2019,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1934,7 +2045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1958,7 +2069,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12"/>
+  <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1966,25 +2077,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="11"/>
-    <col min="3" max="3" width="15.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="78.109375" style="11" customWidth="1"/>
+    <col min="1" max="2" width="8.875" style="11"/>
+    <col min="3" max="3" width="15.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="78.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="34" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="11"/>
+    <col min="6" max="6" width="21.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -2007,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
@@ -2024,7 +2135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +2152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2058,7 +2169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -2126,7 +2237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -2143,7 +2254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -2160,7 +2271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>51</v>
       </c>
@@ -2177,7 +2288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
@@ -2194,7 +2305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>56</v>
       </c>
@@ -2211,7 +2322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
@@ -2228,7 +2339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>44</v>
       </c>
@@ -2245,7 +2356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>64</v>
       </c>
@@ -2262,7 +2373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
@@ -2279,7 +2390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>70</v>
       </c>
@@ -2296,7 +2407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>74</v>
       </c>
@@ -2313,7 +2424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>76</v>
       </c>

--- a/maven_use_base/src/main/java/api/teachers/day09/section01/api_test_case_01.xlsx
+++ b/maven_use_base/src/main/java/api/teachers/day09/section01/api_test_case_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\maven_java_base_git\java_maven_base_git\maven_use_base\src\main\java\api\teachers\day09\section01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2FB98-8DD6-4471-8225-E19F9596B190}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048F4C30-B58A-46F5-AC8C-2025626CFDB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="900" yWindow="2085" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -750,12 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -765,6 +759,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,7 +1211,7 @@
       <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1441,7 +1441,7 @@
       <c r="I1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>181</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1736,7 +1736,7 @@
       <c r="H15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>179</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -1960,7 +1960,7 @@
       <c r="C25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>182</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2080,364 +2080,364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="11"/>
-    <col min="3" max="3" width="15.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="78.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="34" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="11"/>
+    <col min="1" max="2" width="8.875" style="15"/>
+    <col min="3" max="3" width="15.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="78.125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34" style="15" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="15" t="s">
         <v>78</v>
       </c>
     </row>

--- a/maven_use_base/src/main/java/api/teachers/day09/section01/api_test_case_01.xlsx
+++ b/maven_use_base/src/main/java/api/teachers/day09/section01/api_test_case_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\maven_java_base_git\java_maven_base_git\maven_use_base\src\main\java\api\teachers\day09\section01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048F4C30-B58A-46F5-AC8C-2025626CFDB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DF265-F13B-441D-A798-3D3D8806FE66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
